--- a/files/template/Import_template.xlsx
+++ b/files/template/Import_template.xlsx
@@ -1,151 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markyu/Desktop/Myplayground/projectshroud/files/template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127C2523-0B68-2C44-8E82-96850A5B9148}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="24940" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14640" windowWidth="24940" xWindow="660" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="注册参会者" sheetId="1" r:id="rId1"/>
+    <sheet name="注册参会者" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
-  <si>
-    <t>TESTSHROUD VERSION 0.1.1</t>
-  </si>
-  <si>
-    <t>人员信息</t>
-  </si>
-  <si>
-    <t>交通信息</t>
-  </si>
-  <si>
-    <t>出发站</t>
-  </si>
-  <si>
-    <t>出发时间</t>
-  </si>
-  <si>
-    <t>到达站</t>
-  </si>
-  <si>
-    <t>详细信息</t>
-  </si>
-  <si>
-    <t>13512345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan@testshroud.top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京南站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海虹桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*电子邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*交通方式类型(Flight/Train/Other)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*交通方式ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*到达时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：请勿修改此工作表('注册参会者')名称，请勿修改任何单元格格式，否则将无法导入。填写时请仿照第5行样例格式，从第9行开始填写。标*为必填项，请注意填写内容应符合规则。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt formatCode="yyyy/m/d\ h:mm;@" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FFFF0000"/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线 (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -161,62 +69,56 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -516,7 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -525,165 +431,211 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="6" width="10.83203125"/>
+    <col customWidth="1" max="2" min="2" style="6" width="20.83203125"/>
+    <col customWidth="1" max="3" min="3" style="6" width="26.33203125"/>
+    <col customWidth="1" max="4" min="4" style="6" width="34.1640625"/>
+    <col customWidth="1" max="5" min="5" style="6" width="14.33203125"/>
+    <col customWidth="1" max="6" min="6" style="6" width="15.5"/>
+    <col customWidth="1" max="7" min="7" style="11" width="21.1640625"/>
+    <col customWidth="1" max="8" min="8" style="6" width="16.83203125"/>
+    <col customWidth="1" max="9" min="9" style="11" width="22.1640625"/>
+    <col customWidth="1" max="10" min="10" style="6" width="30.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>TESTSHROUD VERSION 0.1.1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mgc-tE5St3Sh1rOuD</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>说明：请勿修改此工作表('注册参会者')名称，请勿修改任何单元格格式，否则将无法导入。填写时请仿照第5行样例格式，从第9行开始填写。标*为必填项，请注意填写内容应符合规则。</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>人员信息</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>交通信息</t>
+        </is>
+      </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>*姓名</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>*手机号码</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>*电子邮箱</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>*交通方式类型(Flight/Train/Other)</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>*交通方式ID</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>出发站</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>出发时间</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>到达站</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="inlineStr">
+        <is>
+          <t>*到达时间</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>详细信息</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2">
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>13512345678</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>zhangsan@testshroud.top</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>北京南站</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="n">
         <v>43617.375</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>上海虹桥</t>
+        </is>
+      </c>
+      <c r="I5" s="11" t="n">
         <v>43617.5625</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>备注信息</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>人员信息</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>交通信息</t>
+        </is>
+      </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>6</v>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>*姓名</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>*手机号码</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>*电子邮箱</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>*交通方式类型(Flight/Train/Other)</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>*交通方式ID</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>出发站</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>出发时间</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>到达站</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="inlineStr">
+        <is>
+          <t>*到达时间</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>详细信息</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -695,10 +647,9 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:J7"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{488625D0-A35B-3F4B-89E0-65F5E82F4221}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/files/template/Import_template.xlsx
+++ b/files/template/Import_template.xlsx
@@ -1,59 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markyu/Desktop/Myplayground/projectshroud/files/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22415D1-8BF5-0F4A-A8B7-E12E56697766}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14640" windowWidth="24940" xWindow="660" yWindow="460"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="24940" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="注册参会者" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="注册参会者" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+  <si>
+    <t>TESTSHROUD VERSION 0.1.1</t>
+  </si>
+  <si>
+    <t>mgc-tE5St3Sh1rOuD</t>
+  </si>
+  <si>
+    <t>说明：请勿修改此工作表('注册参会者')名称，请勿修改任何单元格格式，否则将无法导入。填写时请仿照第5行样例格式，从第9行开始填写。标*为必填项，请注意填写内容应符合规则。</t>
+  </si>
+  <si>
+    <t>人员信息</t>
+  </si>
+  <si>
+    <t>交通信息</t>
+  </si>
+  <si>
+    <t>*姓名</t>
+  </si>
+  <si>
+    <t>*手机号码</t>
+  </si>
+  <si>
+    <t>*电子邮箱</t>
+  </si>
+  <si>
+    <t>*交通方式类型(Flight/Train/Other)</t>
+  </si>
+  <si>
+    <t>*交通方式ID</t>
+  </si>
+  <si>
+    <t>出发站</t>
+  </si>
+  <si>
+    <t>出发时间</t>
+  </si>
+  <si>
+    <t>到达站</t>
+  </si>
+  <si>
+    <t>*到达时间</t>
+  </si>
+  <si>
+    <t>详细信息</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>13512345678</t>
+  </si>
+  <si>
+    <t>zhangsan@testshroud.top</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>北京南站</t>
+  </si>
+  <si>
+    <t>上海虹桥</t>
+  </si>
+  <si>
+    <t>备注信息</t>
+  </si>
+  <si>
+    <t>住宿信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海大酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="yyyy/m/d\ h:mm;@" numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FFFF0000"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,56 +157,53 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,224 +503,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="10.83203125"/>
-    <col customWidth="1" max="2" min="2" style="6" width="20.83203125"/>
-    <col customWidth="1" max="3" min="3" style="6" width="26.33203125"/>
-    <col customWidth="1" max="4" min="4" style="6" width="34.1640625"/>
-    <col customWidth="1" max="5" min="5" style="6" width="14.33203125"/>
-    <col customWidth="1" max="6" min="6" style="6" width="15.5"/>
-    <col customWidth="1" max="7" min="7" style="11" width="21.1640625"/>
-    <col customWidth="1" max="8" min="8" style="6" width="16.83203125"/>
-    <col customWidth="1" max="9" min="9" style="11" width="22.1640625"/>
-    <col customWidth="1" max="10" min="10" style="6" width="30.5"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>TESTSHROUD VERSION 0.1.1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mgc-tE5St3Sh1rOuD</t>
-        </is>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>说明：请勿修改此工作表('注册参会者')名称，请勿修改任何单元格格式，否则将无法导入。填写时请仿照第5行样例格式，从第9行开始填写。标*为必填项，请注意填写内容应符合规则。</t>
-        </is>
-      </c>
+    <row r="2" spans="1:11">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>人员信息</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>交通信息</t>
-        </is>
-      </c>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>*姓名</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>*手机号码</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>*电子邮箱</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>*交通方式类型(Flight/Train/Other)</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>*交通方式ID</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>出发站</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>出发时间</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>到达站</t>
-        </is>
-      </c>
-      <c r="I4" s="11" t="inlineStr">
-        <is>
-          <t>*到达时间</t>
-        </is>
-      </c>
-      <c r="J4" s="6" t="inlineStr">
-        <is>
-          <t>详细信息</t>
-        </is>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>13512345678</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>zhangsan@testshroud.top</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>北京南站</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
         <v>43617.375</v>
       </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>上海虹桥</t>
-        </is>
-      </c>
-      <c r="I5" s="11" t="n">
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3">
         <v>43617.5625</v>
       </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>备注信息</t>
-        </is>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>人员信息</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>交通信息</t>
-        </is>
-      </c>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>*姓名</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>*手机号码</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>*电子邮箱</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>*交通方式类型(Flight/Train/Other)</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>*交通方式ID</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>出发站</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>出发时间</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>到达站</t>
-        </is>
-      </c>
-      <c r="I8" s="11" t="inlineStr">
-        <is>
-          <t>*到达时间</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>详细信息</t>
-        </is>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -647,9 +695,10 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:J7"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>